--- a/dataTest.xlsx
+++ b/dataTest.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
